--- a/shoppingTest.xlsx
+++ b/shoppingTest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshl\homemake\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57331FA5-FF5B-4831-AACD-B7EB02D7F06C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC13149-016F-490B-AA39-2415D44E4F3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10980" xr2:uid="{B8CC809B-74A1-4105-B993-E1B3FB20F35E}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10980" activeTab="1" xr2:uid="{B8CC809B-74A1-4105-B993-E1B3FB20F35E}"/>
   </bookViews>
   <sheets>
     <sheet name="recipe 1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
   <si>
     <t>cup</t>
   </si>
@@ -112,6 +112,21 @@
   </si>
   <si>
     <t>beef</t>
+  </si>
+  <si>
+    <t>misc amount</t>
+  </si>
+  <si>
+    <t>misc type</t>
+  </si>
+  <si>
+    <t>misc item</t>
+  </si>
+  <si>
+    <t>can</t>
+  </si>
+  <si>
+    <t>josh</t>
   </si>
 </sst>
 </file>
@@ -485,7 +500,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40FE3501-A6BD-414C-BC00-B6FE2B401450}">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -564,9 +579,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC99E2D8-29BE-4953-A5CB-647DFB7F8F40}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
@@ -578,7 +595,7 @@
     <col min="7" max="7" width="8.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -597,8 +614,17 @@
       <c r="G1" t="s">
         <v>12</v>
       </c>
+      <c r="I1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A2">
         <v>2</v>
       </c>
@@ -617,8 +643,17 @@
       <c r="G2" t="s">
         <v>4</v>
       </c>
+      <c r="I2">
+        <v>333</v>
+      </c>
+      <c r="J2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A3">
         <v>0.5</v>
       </c>
@@ -638,7 +673,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A4">
         <v>16</v>
       </c>

--- a/shoppingTest.xlsx
+++ b/shoppingTest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshl\homemake\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC13149-016F-490B-AA39-2415D44E4F3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F424AB1-D6DC-422C-9758-23A53CFD6399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10980" activeTab="1" xr2:uid="{B8CC809B-74A1-4105-B993-E1B3FB20F35E}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10980" xr2:uid="{B8CC809B-74A1-4105-B993-E1B3FB20F35E}"/>
   </bookViews>
   <sheets>
     <sheet name="recipe 1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
   <si>
     <t>cup</t>
   </si>
@@ -498,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40FE3501-A6BD-414C-BC00-B6FE2B401450}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -569,6 +569,17 @@
         <v>17</v>
       </c>
       <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A4">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -581,7 +592,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC99E2D8-29BE-4953-A5CB-647DFB7F8F40}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
